--- a/sofaplayer/Premier_League/West Ham United_stats.xlsx
+++ b/sofaplayer/Premier_League/West Ham United_stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DL23"/>
+  <dimension ref="A1:DL22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7790,38 +7790,36 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ezra Mayers</t>
+          <t>Alphonse Aréola</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1652590</v>
+        <v>96531</v>
       </c>
       <c r="E21" t="n">
-        <v>6.56</v>
+        <v>6.8</v>
       </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>126</v>
+        <v>1800</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.1188</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -7860,88 +7858,88 @@
         <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.44350112</v>
+        <v>0.02511728</v>
       </c>
       <c r="AB21" t="n">
-        <v>96</v>
+        <v>762</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>63</v>
+        <v>252</v>
       </c>
       <c r="AF21" t="n">
-        <v>82.894736842105</v>
+        <v>46.666666666667</v>
       </c>
       <c r="AG21" t="n">
-        <v>76</v>
+        <v>540</v>
       </c>
       <c r="AH21" t="n">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="AI21" t="n">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="AJ21" t="n">
         <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="AL21" t="n">
-        <v>40</v>
+        <v>30.676328502415</v>
       </c>
       <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>142</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW21" t="n">
         <v>2</v>
       </c>
-      <c r="AN21" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AX21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
         <v>6</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>100</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>4</v>
       </c>
       <c r="BB21" t="n">
         <v>66.666666666667</v>
@@ -7953,137 +7951,137 @@
         <v>50</v>
       </c>
       <c r="BE21" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>71.428571428571</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>294</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>77</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>37</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>136</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>20</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>288</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>29</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>14</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>6</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>51</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>21</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="CK21" t="n">
         <v>3</v>
       </c>
-      <c r="BF21" t="n">
-        <v>75</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>17</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO21" t="n">
+      <c r="CL21" t="n">
+        <v>21</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>15</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
         <v>3</v>
       </c>
-      <c r="BP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ21" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="BR21" t="n">
-        <v>5</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT21" t="n">
-        <v>13</v>
-      </c>
-      <c r="BU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CC21" t="n">
-        <v>4</v>
-      </c>
-      <c r="CD21" t="n">
+      <c r="CV21" t="n">
         <v>2</v>
       </c>
-      <c r="CE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CS21" t="n">
-        <v>1</v>
-      </c>
-      <c r="CT21" t="n">
-        <v>3</v>
-      </c>
-      <c r="CU21" t="n">
-        <v>2</v>
-      </c>
-      <c r="CV21" t="n">
-        <v>1</v>
-      </c>
       <c r="CW21" t="n">
         <v>0</v>
       </c>
@@ -8094,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>10</v>
+        <v>414</v>
       </c>
       <c r="DA21" t="n">
         <v>0</v>
@@ -8109,29 +8107,31 @@
         <v>0</v>
       </c>
       <c r="DE21" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="DF21" t="n">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="DG21" t="n">
-        <v>48</v>
+        <v>349</v>
       </c>
       <c r="DH21" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="DI21" t="n">
         <v>0</v>
       </c>
       <c r="DJ21" t="n">
-        <v>2520219</v>
+        <v>2290733</v>
       </c>
       <c r="DK21" t="inlineStr">
         <is>
           <t>overall</t>
         </is>
       </c>
-      <c r="DL21" t="inlineStr"/>
+      <c r="DL21" t="n">
+        <v>-1.3957</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -8146,26 +8146,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Alphonse Aréola</t>
+          <t>Mads Hermansen</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>96531</v>
+        <v>856640</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F22" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G22" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="H22" t="n">
-        <v>1800</v>
+        <v>540</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -8214,43 +8214,43 @@
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.02511728</v>
+        <v>0.01925338</v>
       </c>
       <c r="AB22" t="n">
-        <v>762</v>
+        <v>275</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>252</v>
+        <v>122</v>
       </c>
       <c r="AF22" t="n">
-        <v>46.666666666667</v>
+        <v>58.653846153846</v>
       </c>
       <c r="AG22" t="n">
-        <v>540</v>
+        <v>208</v>
       </c>
       <c r="AH22" t="n">
-        <v>157</v>
+        <v>94</v>
       </c>
       <c r="AI22" t="n">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="AL22" t="n">
-        <v>30.676328502415</v>
+        <v>26.495726495726</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8259,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP22" t="n">
         <v>0</v>
@@ -8268,91 +8268,91 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>100</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>86</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>16</v>
+      </c>
+      <c r="BN22" t="n">
         <v>2</v>
       </c>
-      <c r="AX22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
+      <c r="BO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="BR22" t="n">
         <v>6</v>
       </c>
-      <c r="BB22" t="n">
-        <v>66.666666666667</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>50</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>5</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>71.428571428571</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>294</v>
-      </c>
-      <c r="BH22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>77</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
-        <v>37</v>
-      </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>136</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>20</v>
-      </c>
       <c r="BS22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>288</v>
+        <v>86</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8379,10 +8379,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="CD22" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8391,31 +8391,31 @@
         <v>0</v>
       </c>
       <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>11</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>12</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
         <v>6</v>
       </c>
-      <c r="CH22" t="n">
-        <v>51</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>21</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>34</v>
-      </c>
-      <c r="CK22" t="n">
+      <c r="CM22" t="n">
         <v>3</v>
       </c>
-      <c r="CL22" t="n">
-        <v>21</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
       <c r="CN22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="CO22" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -8424,7 +8424,7 @@
         <v>0</v>
       </c>
       <c r="CR22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CS22" t="n">
         <v>0</v>
@@ -8433,52 +8433,52 @@
         <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
+        <v>117</v>
+      </c>
+      <c r="DA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
         <v>2</v>
       </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>414</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>19</v>
-      </c>
       <c r="DF22" t="n">
-        <v>191</v>
+        <v>107</v>
       </c>
       <c r="DG22" t="n">
-        <v>349</v>
+        <v>101</v>
       </c>
       <c r="DH22" t="n">
-        <v>164</v>
+        <v>24</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
       </c>
       <c r="DJ22" t="n">
-        <v>2290733</v>
+        <v>2137050</v>
       </c>
       <c r="DK22" t="inlineStr">
         <is>
@@ -8486,362 +8486,6 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-1.3957</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Premier_League</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>West Ham United</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Mads Hermansen</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>856640</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" t="n">
-        <v>6</v>
-      </c>
-      <c r="H23" t="n">
-        <v>540</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0.01925338</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>275</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>122</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>58.653846153846</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>208</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>94</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>31</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>26.495726495726</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>53</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>4</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>100</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>86</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>16</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>2</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>12</v>
-      </c>
-      <c r="BP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ23" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="BR23" t="n">
-        <v>6</v>
-      </c>
-      <c r="BS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT23" t="n">
-        <v>86</v>
-      </c>
-      <c r="BU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC23" t="n">
-        <v>12</v>
-      </c>
-      <c r="CD23" t="n">
-        <v>7</v>
-      </c>
-      <c r="CE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH23" t="n">
-        <v>11</v>
-      </c>
-      <c r="CI23" t="n">
-        <v>4</v>
-      </c>
-      <c r="CJ23" t="n">
-        <v>12</v>
-      </c>
-      <c r="CK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL23" t="n">
-        <v>6</v>
-      </c>
-      <c r="CM23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CN23" t="n">
-        <v>3</v>
-      </c>
-      <c r="CO23" t="n">
-        <v>8</v>
-      </c>
-      <c r="CP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ23" t="n">
-        <v>117</v>
-      </c>
-      <c r="DA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE23" t="n">
-        <v>2</v>
-      </c>
-      <c r="DF23" t="n">
-        <v>107</v>
-      </c>
-      <c r="DG23" t="n">
-        <v>101</v>
-      </c>
-      <c r="DH23" t="n">
-        <v>24</v>
-      </c>
-      <c r="DI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="DJ23" t="n">
-        <v>2137050</v>
-      </c>
-      <c r="DK23" t="inlineStr">
-        <is>
-          <t>overall</t>
-        </is>
-      </c>
-      <c r="DL23" t="n">
         <v>-1.595</v>
       </c>
     </row>
